--- a/PerfTest.xlsx
+++ b/PerfTest.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$36</definedName>
@@ -3929,4 +3930,20 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>